--- a/assets/file/format_oscrms_rencana.xlsx
+++ b/assets/file/format_oscrms_rencana.xlsx
@@ -240,6 +240,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,15 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,64 +578,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="6">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
         <v>123</v>
       </c>
-      <c r="D3" s="9">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="D3" s="5">
+        <v>12314</v>
+      </c>
+      <c r="E3" s="6">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
         <v>12</v>
       </c>
     </row>
@@ -669,25 +669,25 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9">
-        <v>12</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="B5" s="6">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
         <v>12</v>
       </c>
     </row>
@@ -721,25 +721,25 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9">
-        <v>12</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="B7" s="6">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
         <v>12</v>
       </c>
     </row>
@@ -773,25 +773,25 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9">
-        <v>12</v>
-      </c>
-      <c r="E9" s="10">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9">
-        <v>12</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="B9" s="6">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5">
         <v>12</v>
       </c>
     </row>
@@ -812,7 +812,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="2">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2">
         <v>12</v>
@@ -825,25 +825,25 @@
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9">
-        <v>12</v>
-      </c>
-      <c r="D11" s="9">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9">
-        <v>12</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="B11" s="6">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5">
         <v>12</v>
       </c>
     </row>
@@ -877,25 +877,25 @@
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9">
-        <v>12</v>
-      </c>
-      <c r="G13" s="9">
-        <v>12</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
         <v>12</v>
       </c>
     </row>
@@ -929,25 +929,25 @@
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9">
-        <v>12</v>
-      </c>
-      <c r="D15" s="9">
-        <v>12</v>
-      </c>
-      <c r="E15" s="10">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9">
-        <v>12</v>
-      </c>
-      <c r="G15" s="9">
-        <v>12</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5">
         <v>12</v>
       </c>
     </row>
@@ -981,25 +981,25 @@
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9">
-        <v>12</v>
-      </c>
-      <c r="E17" s="10">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9">
-        <v>12</v>
-      </c>
-      <c r="G17" s="9">
-        <v>12</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="B17" s="6">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1033,25 +1033,25 @@
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9">
-        <v>12</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="B19" s="6">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1085,25 +1085,25 @@
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9">
-        <v>12</v>
-      </c>
-      <c r="D21" s="9">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9">
-        <v>12</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="B21" s="6">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1111,25 +1111,25 @@
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="10">
-        <v>12</v>
-      </c>
-      <c r="C22" s="10">
-        <v>12</v>
-      </c>
-      <c r="D22" s="9">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="B22" s="6">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1163,25 +1163,25 @@
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10">
-        <v>12</v>
-      </c>
-      <c r="C24" s="9">
-        <v>12</v>
-      </c>
-      <c r="D24" s="9">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9">
-        <v>12</v>
-      </c>
-      <c r="G24" s="9">
-        <v>12</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="B24" s="6">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1215,25 +1215,25 @@
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="10">
-        <v>12</v>
-      </c>
-      <c r="C26" s="9">
-        <v>12</v>
-      </c>
-      <c r="D26" s="9">
-        <v>12</v>
-      </c>
-      <c r="E26" s="10">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9">
-        <v>12</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="B26" s="6">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1267,25 +1267,25 @@
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10">
-        <v>12</v>
-      </c>
-      <c r="C28" s="9">
-        <v>12</v>
-      </c>
-      <c r="D28" s="9">
-        <v>12</v>
-      </c>
-      <c r="E28" s="10">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9">
+      <c r="B28" s="6">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1319,25 +1319,25 @@
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="10">
-        <v>12</v>
-      </c>
-      <c r="C30" s="9">
-        <v>12</v>
-      </c>
-      <c r="D30" s="9">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9">
-        <v>12</v>
-      </c>
-      <c r="G30" s="9">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9">
+      <c r="B30" s="6">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1371,25 +1371,25 @@
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="10">
-        <v>12</v>
-      </c>
-      <c r="C32" s="9">
-        <v>12</v>
-      </c>
-      <c r="D32" s="9">
-        <v>12</v>
-      </c>
-      <c r="E32" s="10">
-        <v>12</v>
-      </c>
-      <c r="F32" s="9">
-        <v>12</v>
-      </c>
-      <c r="G32" s="9">
-        <v>12</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="B32" s="6">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5">
+        <v>12</v>
+      </c>
+      <c r="H32" s="5">
         <v>12</v>
       </c>
     </row>

--- a/assets/file/format_oscrms_rencana.xlsx
+++ b/assets/file/format_oscrms_rencana.xlsx
@@ -562,7 +562,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/assets/file/format_oscrms_rencana.xlsx
+++ b/assets/file/format_oscrms_rencana.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>1</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>OWN USE</t>
+  </si>
+  <si>
+    <t>MISS (TIDAK TERKIRIM HARI SEBELUMNYA)</t>
+  </si>
+  <si>
+    <t>TAMBAHAN /HO/ HI</t>
+  </si>
+  <si>
+    <t>PEMBATALAN/CANCEL</t>
   </si>
 </sst>
 </file>
@@ -559,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,9 +584,12 @@
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="52.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
@@ -602,8 +614,17 @@
       <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -612,8 +633,11 @@
       <c r="F2" s="10"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -638,8 +662,17 @@
       <c r="H3" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="5">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -664,8 +697,17 @@
       <c r="H4" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -690,8 +732,17 @@
       <c r="H5" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="5">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5">
+        <v>12</v>
+      </c>
+      <c r="K5" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -716,8 +767,17 @@
       <c r="H6" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -742,8 +802,17 @@
       <c r="H7" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="5">
+        <v>12</v>
+      </c>
+      <c r="J7" s="5">
+        <v>12</v>
+      </c>
+      <c r="K7" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -768,8 +837,17 @@
       <c r="H8" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -794,8 +872,17 @@
       <c r="H9" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="5">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5">
+        <v>12</v>
+      </c>
+      <c r="K9" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -820,8 +907,17 @@
       <c r="H10" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -846,8 +942,17 @@
       <c r="H11" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="5">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5">
+        <v>12</v>
+      </c>
+      <c r="K11" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -872,8 +977,17 @@
       <c r="H12" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -898,8 +1012,17 @@
       <c r="H13" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="5">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5">
+        <v>12</v>
+      </c>
+      <c r="K13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -924,8 +1047,17 @@
       <c r="H14" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2">
+        <v>12</v>
+      </c>
+      <c r="J14" s="2">
+        <v>12</v>
+      </c>
+      <c r="K14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -950,8 +1082,17 @@
       <c r="H15" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="5">
+        <v>12</v>
+      </c>
+      <c r="J15" s="5">
+        <v>12</v>
+      </c>
+      <c r="K15" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -976,8 +1117,17 @@
       <c r="H16" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1002,8 +1152,17 @@
       <c r="H17" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="5">
+        <v>12</v>
+      </c>
+      <c r="J17" s="5">
+        <v>12</v>
+      </c>
+      <c r="K17" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1028,8 +1187,17 @@
       <c r="H18" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2">
+        <v>12</v>
+      </c>
+      <c r="J18" s="2">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1054,8 +1222,17 @@
       <c r="H19" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="5">
+        <v>12</v>
+      </c>
+      <c r="J19" s="5">
+        <v>12</v>
+      </c>
+      <c r="K19" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1080,8 +1257,17 @@
       <c r="H20" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2">
+        <v>12</v>
+      </c>
+      <c r="J20" s="2">
+        <v>12</v>
+      </c>
+      <c r="K20" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -1106,8 +1292,17 @@
       <c r="H21" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="5">
+        <v>12</v>
+      </c>
+      <c r="J21" s="5">
+        <v>12</v>
+      </c>
+      <c r="K21" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1132,8 +1327,17 @@
       <c r="H22" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="5">
+        <v>12</v>
+      </c>
+      <c r="J22" s="5">
+        <v>12</v>
+      </c>
+      <c r="K22" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1158,8 +1362,17 @@
       <c r="H23" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2">
+        <v>12</v>
+      </c>
+      <c r="J23" s="2">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1184,8 +1397,17 @@
       <c r="H24" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="5">
+        <v>12</v>
+      </c>
+      <c r="J24" s="5">
+        <v>12</v>
+      </c>
+      <c r="K24" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1210,8 +1432,17 @@
       <c r="H25" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2">
+        <v>12</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -1236,8 +1467,17 @@
       <c r="H26" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="5">
+        <v>12</v>
+      </c>
+      <c r="J26" s="5">
+        <v>12</v>
+      </c>
+      <c r="K26" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1262,8 +1502,17 @@
       <c r="H27" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2">
+        <v>12</v>
+      </c>
+      <c r="J27" s="2">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -1288,8 +1537,17 @@
       <c r="H28" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="5">
+        <v>12</v>
+      </c>
+      <c r="J28" s="5">
+        <v>12</v>
+      </c>
+      <c r="K28" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -1314,8 +1572,17 @@
       <c r="H29" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2">
+        <v>12</v>
+      </c>
+      <c r="J29" s="2">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1340,8 +1607,17 @@
       <c r="H30" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="5">
+        <v>12</v>
+      </c>
+      <c r="J30" s="5">
+        <v>12</v>
+      </c>
+      <c r="K30" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1366,8 +1642,17 @@
       <c r="H31" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2">
+        <v>12</v>
+      </c>
+      <c r="J31" s="2">
+        <v>12</v>
+      </c>
+      <c r="K31" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -1392,8 +1677,17 @@
       <c r="H32" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="5">
+        <v>12</v>
+      </c>
+      <c r="J32" s="5">
+        <v>12</v>
+      </c>
+      <c r="K32" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -1418,50 +1712,59 @@
       <c r="H33" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="2">
+        <v>12</v>
+      </c>
+      <c r="J33" s="2">
+        <v>12</v>
+      </c>
+      <c r="K33" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:11">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:11">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:11">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:11">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:11">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:11">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:11">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:11">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:11">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:11">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:11">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:11">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:11">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:11">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:1">
@@ -1627,7 +1930,10 @@
       <c r="A102"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
